--- a/FYP Data/Evaluation/Confusion Matrix - SVM.xlsx
+++ b/FYP Data/Evaluation/Confusion Matrix - SVM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maximilian\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DIT\MaxStaffForDIT\4thYear\FinalYearProject\BehaviouralBiometricsPhoneLock\FYP\FYP Data\Evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -580,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AF29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B28"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AF15" sqref="AF15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1909,7 +1909,7 @@
         <v>17.485265225933201</v>
       </c>
       <c r="AF15" s="13">
-        <f t="shared" si="0"/>
+        <f>100-AE15</f>
         <v>82.514734774066795</v>
       </c>
     </row>
